--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAC8CC-6F55-4A45-B28E-739E62E78D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -68,13 +80,70 @@
   </si>
   <si>
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
+  </si>
+  <si>
+    <t>I found an updated version of the study that EPS cites here:</t>
+  </si>
+  <si>
+    <t>DOI:10.1007/s12053-015-9386-7</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Results suggest that rebate policies increase</t>
+  </si>
+  <si>
+    <t>the sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>by 3.3 to 6.6 percentage points, and this represents</t>
+  </si>
+  <si>
+    <t>an impact of 9 to 18 % on the mean level of the</t>
+  </si>
+  <si>
+    <t>sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>in the US between 2001 and 2006.</t>
+  </si>
+  <si>
+    <t>See Table 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3.3% and 6.6% answers are both statistically significant and depend on the analysis method being used. </t>
+  </si>
+  <si>
+    <t>Neither method stood out to me as being "better", so maybe we just average the two together and get 4.95%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And, for what it's worth, it looks like the 7.4% number that EPS was using comes from Table 1 and does not mean what they intended it to mean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 7.4% describes the mean of a distribution of whether or not a state has rebates for particular applicances.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a binary distribution, so 0 for states without rebates and 1 for states with rebates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 4.95% number (average of 3.3 and 6.6) has to do with the increase in energy start appliances when a rebate is available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">***I looked a bit for Texas specific data and didn't find much. </t>
+  </si>
+  <si>
+    <t>It's worth noting that Texas does not appear to be as rebate-happy as most states. So there is probably not a lot of historical data for a Texas-specific study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to build on. Then, I assume that Texas consumers will respond to rebates in a similar way to American consumers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +167,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -131,6 +206,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -225,6 +301,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +353,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +627,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -525,14 +635,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC572A0-A1E7-421D-B487-6D87F37C3754}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +782,10 @@
       </c>
       <c r="B2">
         <f>-C2</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="C2">
-        <v>7.3999999999999996E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAC8CC-6F55-4A45-B28E-739E62E78D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId3"/>
+    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -43,9 +42,6 @@
     <t>Datta, S. and Filippini, M.</t>
   </si>
   <si>
-    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
-  </si>
-  <si>
     <t>Page 12, first paragrah</t>
   </si>
   <si>
@@ -82,68 +78,14 @@
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
   </si>
   <si>
-    <t>I found an updated version of the study that EPS cites here:</t>
-  </si>
-  <si>
-    <t>DOI:10.1007/s12053-015-9386-7</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Results suggest that rebate policies increase</t>
-  </si>
-  <si>
-    <t>the sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>by 3.3 to 6.6 percentage points, and this represents</t>
-  </si>
-  <si>
-    <t>an impact of 9 to 18 % on the mean level of the</t>
-  </si>
-  <si>
-    <t>sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>in the US between 2001 and 2006.</t>
-  </si>
-  <si>
-    <t>See Table 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 3.3% and 6.6% answers are both statistically significant and depend on the analysis method being used. </t>
-  </si>
-  <si>
-    <t>Neither method stood out to me as being "better", so maybe we just average the two together and get 4.95%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And, for what it's worth, it looks like the 7.4% number that EPS was using comes from Table 1 and does not mean what they intended it to mean. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 7.4% describes the mean of a distribution of whether or not a state has rebates for particular applicances.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a binary distribution, so 0 for states without rebates and 1 for states with rebates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 4.95% number (average of 3.3 and 6.6) has to do with the increase in energy start appliances when a rebate is available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">***I looked a bit for Texas specific data and didn't find much. </t>
-  </si>
-  <si>
-    <t>It's worth noting that Texas does not appear to be as rebate-happy as most states. So there is probably not a lot of historical data for a Texas-specific study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to build on. Then, I assume that Texas consumers will respond to rebates in a similar way to American consumers. </t>
+    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +109,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -206,7 +142,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,52 +510,52 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -635,122 +568,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC572A0-A1E7-421D-B487-6D87F37C3754}">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -758,7 +575,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,22 +587,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>-C2</f>
-        <v>-4.9500000000000002E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="C2">
-        <v>4.9500000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAC8CC-6F55-4A45-B28E-739E62E78D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -42,6 +43,9 @@
     <t>Datta, S. and Filippini, M.</t>
   </si>
   <si>
+    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
+  </si>
+  <si>
     <t>Page 12, first paragrah</t>
   </si>
   <si>
@@ -78,14 +82,68 @@
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
   </si>
   <si>
-    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
+    <t>I found an updated version of the study that EPS cites here:</t>
+  </si>
+  <si>
+    <t>DOI:10.1007/s12053-015-9386-7</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Results suggest that rebate policies increase</t>
+  </si>
+  <si>
+    <t>the sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>by 3.3 to 6.6 percentage points, and this represents</t>
+  </si>
+  <si>
+    <t>an impact of 9 to 18 % on the mean level of the</t>
+  </si>
+  <si>
+    <t>sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>in the US between 2001 and 2006.</t>
+  </si>
+  <si>
+    <t>See Table 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3.3% and 6.6% answers are both statistically significant and depend on the analysis method being used. </t>
+  </si>
+  <si>
+    <t>Neither method stood out to me as being "better", so maybe we just average the two together and get 4.95%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And, for what it's worth, it looks like the 7.4% number that EPS was using comes from Table 1 and does not mean what they intended it to mean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 7.4% describes the mean of a distribution of whether or not a state has rebates for particular applicances.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a binary distribution, so 0 for states without rebates and 1 for states with rebates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 4.95% number (average of 3.3 and 6.6) has to do with the increase in energy start appliances when a rebate is available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">***I looked a bit for Texas specific data and didn't find much. </t>
+  </si>
+  <si>
+    <t>It's worth noting that Texas does not appear to be as rebate-happy as most states. So there is probably not a lot of historical data for a Texas-specific study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to build on. Then, I assume that Texas consumers will respond to rebates in a similar way to American consumers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +167,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +206,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,7 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -510,52 +577,52 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -568,6 +635,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC572A0-A1E7-421D-B487-6D87F37C3754}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -575,7 +758,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,22 +770,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f>-C2</f>
-        <v>-7.3999999999999996E-2</v>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="C2">
-        <v>7.3999999999999996E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\MSCdtRPbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAC8CC-6F55-4A45-B28E-739E62E78D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F821175-DE70-487D-BE06-D3E2F34E7F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -82,61 +83,28 @@
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
   </si>
   <si>
-    <t>I found an updated version of the study that EPS cites here:</t>
-  </si>
-  <si>
     <t>DOI:10.1007/s12053-015-9386-7</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Results suggest that rebate policies increase</t>
-  </si>
-  <si>
-    <t>the sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>by 3.3 to 6.6 percentage points, and this represents</t>
-  </si>
-  <si>
-    <t>an impact of 9 to 18 % on the mean level of the</t>
-  </si>
-  <si>
-    <t>sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>in the US between 2001 and 2006.</t>
-  </si>
-  <si>
     <t>See Table 3.</t>
   </si>
   <si>
     <t xml:space="preserve">The 3.3% and 6.6% answers are both statistically significant and depend on the analysis method being used. </t>
   </si>
   <si>
-    <t>Neither method stood out to me as being "better", so maybe we just average the two together and get 4.95%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And, for what it's worth, it looks like the 7.4% number that EPS was using comes from Table 1 and does not mean what they intended it to mean. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 7.4% describes the mean of a distribution of whether or not a state has rebates for particular applicances.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a binary distribution, so 0 for states without rebates and 1 for states with rebates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 4.95% number (average of 3.3 and 6.6) has to do with the increase in energy start appliances when a rebate is available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">***I looked a bit for Texas specific data and didn't find much. </t>
-  </si>
-  <si>
-    <t>It's worth noting that Texas does not appear to be as rebate-happy as most states. So there is probably not a lot of historical data for a Texas-specific study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to build on. Then, I assume that Texas consumers will respond to rebates in a similar way to American consumers. </t>
+    <t>"Results suggest that rebate policies increase the sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>by 3.3 to 6.6 percentage points, and this represents an impact of 9 to 18 % on the mean level of the sales share of ENERGY STAR household appliances</t>
+  </si>
+  <si>
+    <t>sales share of ENERGY STAR household appliances in the US between 2001 and 2006."</t>
+  </si>
+  <si>
+    <t>updated version of the study that EPS cites here:</t>
+  </si>
+  <si>
+    <t>Neither method stood out as being "better"; average the two together and get 4.95%.</t>
   </si>
 </sst>
 </file>
@@ -552,17 +520,17 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,57 +538,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -636,112 +604,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC572A0-A1E7-421D-B487-6D87F37C3754}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -761,14 +667,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -776,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>

--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\MSCdtRPbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F821175-DE70-487D-BE06-D3E2F34E7F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A28372-CA4D-4F0B-96D9-E1953B8DA16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId3"/>
+    <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -44,9 +42,6 @@
     <t>Datta, S. and Filippini, M.</t>
   </si>
   <si>
-    <t>http://www.cepe.ethz.ch/publications/workingPapers/CEPE_WP86.pdf</t>
-  </si>
-  <si>
     <t>Page 12, first paragrah</t>
   </si>
   <si>
@@ -83,35 +78,14 @@
     <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
   </si>
   <si>
-    <t>DOI:10.1007/s12053-015-9386-7</t>
-  </si>
-  <si>
-    <t>See Table 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 3.3% and 6.6% answers are both statistically significant and depend on the analysis method being used. </t>
-  </si>
-  <si>
-    <t>"Results suggest that rebate policies increase the sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>by 3.3 to 6.6 percentage points, and this represents an impact of 9 to 18 % on the mean level of the sales share of ENERGY STAR household appliances</t>
-  </si>
-  <si>
-    <t>sales share of ENERGY STAR household appliances in the US between 2001 and 2006."</t>
-  </si>
-  <si>
-    <t>updated version of the study that EPS cites here:</t>
-  </si>
-  <si>
-    <t>Neither method stood out as being "better"; average the two together and get 4.95%.</t>
+    <t>https://ethz.ch/content/dam/ethz/special-interest/mtec/cepe/cepe-dam/documents/research/cepe-wp/CEPE_WP86.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +109,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,7 +142,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,21 +483,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,59 +503,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -603,60 +568,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC572A0-A1E7-421D-B487-6D87F37C3754}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -664,34 +575,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>-C2</f>
-        <v>-4.9500000000000002E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="C2">
-        <v>4.9500000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
